--- a/01. PYTHON/03. SUPPORTING KNOWLEDGE/01. DATA STRUCTURES/01. Data Structures and Algorithm.xlsx
+++ b/01. PYTHON/03. SUPPORTING KNOWLEDGE/01. DATA STRUCTURES/01. Data Structures and Algorithm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7b16b8fa2253ce71/Professional/04. PYTHON/03. SUPPORTING KNOWLEDGE/01. DATA STRUCTURES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balaji Kannigesvaran\Documents\GitHub\LEARNING\01. PYTHON\03. SUPPORTING KNOWLEDGE\01. DATA STRUCTURES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_F25DC773A252ABDACC10488511186F265ADE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA727AA5-85E1-4368-9E1D-8880B026CB91}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE40966C-F558-42F9-A77B-1B2F11F07367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,10 @@
     <sheet name="Vdo 2" sheetId="2" r:id="rId3"/>
     <sheet name="Vdo 3" sheetId="4" r:id="rId4"/>
     <sheet name="Vdo 4 " sheetId="5" r:id="rId5"/>
+    <sheet name="Vdo 5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="170">
   <si>
     <t>Data Structures</t>
   </si>
@@ -194,32 +196,6 @@
   </si>
   <si>
     <t>But the time taken to locate the element based on the index will differ slightly</t>
-  </si>
-  <si>
-    <r>
-      <t>Step 2: Drop all constants (This also includes the constant of fastest growing term. Ex.-3n</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <t>Big O Notation has 2 parts</t>
@@ -560,9 +536,6 @@
     <t>It uses 4 bytes to store int</t>
   </si>
   <si>
-    <t>Check for other thypes also</t>
-  </si>
-  <si>
     <t>So 298 is stored from 500 to 503</t>
   </si>
   <si>
@@ -723,6 +696,95 @@
   </si>
   <si>
     <t>Study deeper</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 2: Drop all constants (This also includes the constant of fastest growing term. Ex.-3 in -3n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>O(n) represents if it takes 4 secs for 4 inputs, it will take 4milion secs for 4 million input</t>
+  </si>
+  <si>
+    <t>Check for no of bytes reqd fo other types like char, str, float, double also</t>
+  </si>
+  <si>
+    <t>In this, even if we consider last element -</t>
+  </si>
+  <si>
+    <t>- the order is not O(n). It is O(1) only</t>
+  </si>
+  <si>
+    <t>Because it is not searching a number from start to end</t>
+  </si>
+  <si>
+    <t>If it requires 2nd index position</t>
+  </si>
+  <si>
+    <t>It will find memory of 0 index position and add 2*4</t>
+  </si>
+  <si>
+    <t>2 in that 2*4 represents 2nd index position</t>
+  </si>
+  <si>
+    <t>If 3rd index is reqd, then it will add 3*4</t>
+  </si>
+  <si>
+    <t>4 is for int type. It will take thye value based on input type</t>
+  </si>
+  <si>
+    <t>Even for nth item it just find the memory in first attempt itself</t>
+  </si>
+  <si>
+    <t>And finally the item is accessed with its memory</t>
+  </si>
+  <si>
+    <t>So its order is not O(n). Its order is O(1)</t>
+  </si>
+  <si>
+    <t>Here we are not looking by index</t>
+  </si>
+  <si>
+    <t>We are looking by value</t>
+  </si>
+  <si>
+    <t>So we have to do n number of iterations</t>
+  </si>
+  <si>
+    <t>We have to go through all the elements in the list</t>
+  </si>
+  <si>
+    <t>So the order is O(n)</t>
+  </si>
+  <si>
+    <t>For printing all the elements also, -</t>
+  </si>
+  <si>
+    <t>- we have to go through all the elements in the list</t>
+  </si>
+  <si>
+    <t>Hash Table</t>
   </si>
 </sst>
 </file>
@@ -797,7 +859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -815,6 +877,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1089,14 +1152,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>583165</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>81775</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>81774</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1139,14 +1202,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>583164</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>81774</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>81773</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1188,7 +1251,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2411964" cy="1356730"/>
@@ -1232,7 +1295,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2411964" cy="1356729"/>
@@ -1276,7 +1339,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2411964" cy="1356730"/>
@@ -1320,7 +1383,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2411964" cy="1356730"/>
@@ -1364,7 +1427,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2411964" cy="1356729"/>
@@ -1408,7 +1471,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2411964" cy="1356729"/>
@@ -1452,7 +1515,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>182136</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2411962" cy="1356729"/>
@@ -1496,7 +1559,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2411962" cy="1356729"/>
@@ -1540,7 +1603,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2411962" cy="1356729"/>
@@ -1763,27 +1826,159 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>18580</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>18588</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2411962" cy="1356729"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E112F331-C0B2-4440-94F6-0018FE2D8F2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628180" y="8943281"/>
+          <a:ext cx="2411962" cy="1356729"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2411964" cy="1356729"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62531E8-834A-41A5-A11D-421D5860C11F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7831874"/>
+          <a:ext cx="2411964" cy="1356729"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2411964" cy="1356729"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF8ABD0-5EFF-492F-90E4-F31228B08C72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9653240"/>
+          <a:ext cx="2411964" cy="1356729"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2411962" cy="1356729"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E112F331-C0B2-4440-94F6-0018FE2D8F2C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC906080-627E-4444-B4B8-1A6698FE3F34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1795,228 +1990,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3657601" y="5828371"/>
-          <a:ext cx="2411962" cy="1356729"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2411964" cy="1356729"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62531E8-834A-41A5-A11D-421D5860C11F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="7831874"/>
-          <a:ext cx="2411964" cy="1356729"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2411964" cy="1356729"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF8ABD0-5EFF-492F-90E4-F31228B08C72}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="9653240"/>
-          <a:ext cx="2411964" cy="1356729"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2411962" cy="1356729"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC906080-627E-4444-B4B8-1A6698FE3F34}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
           <a:off x="3657601" y="9653239"/>
           <a:ext cx="2411962" cy="1356729"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2411962" cy="1356729"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{145604D4-B42A-4910-B2E2-A47A4DAA589F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609601" y="11474606"/>
-          <a:ext cx="2411962" cy="1356729"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2411962" cy="1356728"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D948F49-9FAF-456C-948E-3AD5E8FC045F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3657601" y="11474605"/>
-          <a:ext cx="2411962" cy="1356728"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2035,19 +2010,19 @@
     <xdr:ext cx="2411962" cy="1356729"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{090E65BE-3200-4D7B-9CD4-D213AB4462A5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{145604D4-B42A-4910-B2E2-A47A4DAA589F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2059,7 +2034,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609601" y="13295972"/>
+          <a:off x="609601" y="11474606"/>
           <a:ext cx="2411962" cy="1356729"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2079,19 +2054,19 @@
     <xdr:ext cx="2411962" cy="1356728"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A0CE45-6A22-44EA-A415-BA0B28F25E6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D948F49-9FAF-456C-948E-3AD5E8FC045F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2103,6 +2078,94 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="3657601" y="11474605"/>
+          <a:ext cx="2411962" cy="1356728"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2411962" cy="1356729"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{090E65BE-3200-4D7B-9CD4-D213AB4462A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="13295972"/>
+          <a:ext cx="2411962" cy="1356729"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2411962" cy="1356728"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A0CE45-6A22-44EA-A415-BA0B28F25E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="3657601" y="13295971"/>
           <a:ext cx="2411962" cy="1356728"/>
         </a:xfrm>
@@ -2117,7 +2180,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2411962" cy="1356729"/>
@@ -2249,7 +2312,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>18586</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>22303</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2411962" cy="1356728"/>
@@ -3047,7 +3110,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3073,7 +3136,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3081,12 +3144,15 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3241,10 +3307,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7697F84-978A-4B44-8B64-B1A591B15481}">
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:B128"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A117" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3267,22 +3333,22 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1"/>
     </row>
@@ -3318,7 +3384,7 @@
     </row>
     <row r="15" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -3354,243 +3420,248 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>51</v>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="3"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
-        <v>73</v>
-      </c>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="3"/>
-    </row>
-    <row r="113" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="A104" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="3"/>
     </row>
     <row r="114" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="3"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="5" t="s">
-        <v>87</v>
+      <c r="A117" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="3"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3602,169 +3673,270 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98D647F-630A-45AB-A020-E15057F39E9E}">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A64" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="E18" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="7" t="s">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F42" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F46" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F47" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F48" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F50" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F53" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F54" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F55" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F56" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F57" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F62" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F63" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F64" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>106</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>118</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3777,8 +3949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FED6766-BA6C-469B-B99D-4C27EF485765}">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3788,158 +3960,170 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G82" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G83" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G84" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{801AAB4F-3A00-41E6-BC9D-802BDAFE7628}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>